--- a/thématique SI/012 TIC/storyboard 012.xlsx
+++ b/thématique SI/012 TIC/storyboard 012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Library/Mobile Documents/com~apple~CloudDocs/Documents/pro/ISIS/2023-2024/dev/projet-FENS/thématique SI/012 TIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/dev/projet-FENS/thématique SI/012 TIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40AE33E-CAB9-F246-A9E6-405FC3E8D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955953F-412B-8540-9B62-2CC03AB94A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35680" windowHeight="21000" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="0012" sheetId="12" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Objectif</t>
   </si>
@@ -57,6 +49,24 @@
   </si>
   <si>
     <t>A la fin de cette activité l'étudiant:</t>
+  </si>
+  <si>
+    <t>équivalent santé</t>
+  </si>
+  <si>
+    <t>fondu avec  précédente</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>Exercice</t>
+  </si>
+  <si>
+    <t>Pourriez vous commenter pourquoi le PMSI relève d'une classification au  croisement des donées, et de la communication dans ce tableau.</t>
+  </si>
+  <si>
+    <t>Réponse : il s'agit des fondamentaux d'un SI d'aide à la décision, ou tout tableau de bord doit être alimeenté  par des données brutes sans aucun interprétation intermédiaire et publié par communication sans acteur  interemédiaire susceptible de déformer les indicateurs.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -108,6 +118,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48001A1A-553F-394A-B399-D97D7EA66545}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,6 +624,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
